--- a/PIC16F886/PIC16F886.xlsx
+++ b/PIC16F886/PIC16F886.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PIC\PIC\PIC16F886\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545ECEEB-9773-4CFB-8637-257F3BB4F096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99BEFB-74B3-4FC5-B23D-3EF010A52113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{21F57865-19CC-4E7F-83FF-F697AEECD4CC}"/>
+    <workbookView xWindow="2640" yWindow="3420" windowWidth="33780" windowHeight="15435" xr2:uid="{21F57865-19CC-4E7F-83FF-F697AEECD4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTROS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
   <si>
     <t>PUERTO A</t>
   </si>
@@ -238,13 +238,678 @@
   </si>
   <si>
     <t>BCF f,b</t>
+  </si>
+  <si>
+    <t>TRISC</t>
+  </si>
+  <si>
+    <t>TRISC7</t>
+  </si>
+  <si>
+    <t>TRISC6</t>
+  </si>
+  <si>
+    <t>ADCON1</t>
+  </si>
+  <si>
+    <t>ADFM</t>
+  </si>
+  <si>
+    <t>VCFG1</t>
+  </si>
+  <si>
+    <t>VCFG0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= Right justified</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= Left justified</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>REF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>+ pin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>DD</t>
+    </r>
+  </si>
+  <si>
+    <t>Voltage Reference bit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>REF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>- pin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>SS</t>
+    </r>
+  </si>
+  <si>
+    <t>A/D Conversion Result Format Select bit</t>
+  </si>
+  <si>
+    <t>ADCON0</t>
+  </si>
+  <si>
+    <t>ADCS1</t>
+  </si>
+  <si>
+    <t>ADCS0</t>
+  </si>
+  <si>
+    <t>CHS3</t>
+  </si>
+  <si>
+    <t>CHS2</t>
+  </si>
+  <si>
+    <t>CHS1</t>
+  </si>
+  <si>
+    <t>CHS0</t>
+  </si>
+  <si>
+    <t>GO/DONE</t>
+  </si>
+  <si>
+    <t>ADON</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>OSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>OSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>OSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>/32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">RC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>(clock derived from a dedicated internal oscillator = 500 kHz max)</t>
+    </r>
+  </si>
+  <si>
+    <t>A/D Conversion Clock Select bits</t>
+  </si>
+  <si>
+    <t>Analog Channel Select bits</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0001 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0010 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0011 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0101 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0110 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0111 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1001 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1010 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1011 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1101 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= AN13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1110 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= CV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>REF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1111 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= Fixed Ref (0.6 volt fixed reference)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= A/D conversion cycle in progress. Setting this bit starts an A/D conversion cycle.</t>
+    </r>
+  </si>
+  <si>
+    <t>This bit is automatically cleared by hardware when the A/D conversion has completed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= A/D conversion completed/not in progress</t>
+    </r>
+  </si>
+  <si>
+    <t>A/D Conversion Status bit</t>
+  </si>
+  <si>
+    <t>ADC Enable bit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= ADC is enabled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= El ADC está desactivado y no consume corriente de funcionamiento</t>
+    </r>
+  </si>
+  <si>
+    <t>PIR1</t>
+  </si>
+  <si>
+    <t>ADIF</t>
+  </si>
+  <si>
+    <t>RCIF</t>
+  </si>
+  <si>
+    <t>TXIF</t>
+  </si>
+  <si>
+    <t>SSPIF</t>
+  </si>
+  <si>
+    <t>CCP1IF</t>
+  </si>
+  <si>
+    <t>TMR2IF</t>
+  </si>
+  <si>
+    <t>TMR1IF</t>
+  </si>
+  <si>
+    <t>A/D Converter Interrupt Flag bit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= Conversión A/D completa (debe borrarse en el software)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>=La conversión A/D no se ha completado o no se ha iniciado</t>
+    </r>
+  </si>
+  <si>
+    <t>TRISA</t>
+  </si>
+  <si>
+    <t>TRISA7</t>
+  </si>
+  <si>
+    <t>TRISA6</t>
+  </si>
+  <si>
+    <t>TRISA5</t>
+  </si>
+  <si>
+    <t>TRISA4</t>
+  </si>
+  <si>
+    <t>TRISA3</t>
+  </si>
+  <si>
+    <t>TRISA2</t>
+  </si>
+  <si>
+    <t>TRISA1</t>
+  </si>
+  <si>
+    <t>TRISA0</t>
+  </si>
+  <si>
+    <t>0= Salida</t>
+  </si>
+  <si>
+    <t>1 = Entrada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +933,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +957,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -285,11 +965,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,6 +1006,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,227 +1335,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A25AD9-3DB7-4534-841D-88612F2DA8DB}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" style="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>7</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>7</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>6</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>4</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
+  <mergeCells count="31">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -847,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54A76DD-EDA1-4E99-B1F3-85F8FA19E0D1}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/PIC16F886/PIC16F886.xlsx
+++ b/PIC16F886/PIC16F886.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PIC\PIC\PIC16F886\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99BEFB-74B3-4FC5-B23D-3EF010A52113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F685320F-A41B-438C-813B-A665D80CB1DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="3420" windowWidth="33780" windowHeight="15435" xr2:uid="{21F57865-19CC-4E7F-83FF-F697AEECD4CC}"/>
+    <workbookView xWindow="2475" yWindow="1125" windowWidth="33780" windowHeight="15435" activeTab="1" xr2:uid="{21F57865-19CC-4E7F-83FF-F697AEECD4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTROS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
   <si>
     <t>PUERTO A</t>
   </si>
@@ -759,6 +759,25 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= A/D conversion completed/not in progress</t>
+    </r>
+  </si>
+  <si>
+    <t>A/D Conversion Status bit</t>
+  </si>
+  <si>
+    <t>ADC Enable bit</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">1 </t>
     </r>
     <r>
@@ -767,11 +786,8 @@
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>= A/D conversion cycle in progress. Setting this bit starts an A/D conversion cycle.</t>
-    </r>
-  </si>
-  <si>
-    <t>This bit is automatically cleared by hardware when the A/D conversion has completed.</t>
+      <t>= ADC is enabled</t>
+    </r>
   </si>
   <si>
     <r>
@@ -783,14 +799,35 @@
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>= A/D conversion completed/not in progress</t>
-    </r>
-  </si>
-  <si>
-    <t>A/D Conversion Status bit</t>
-  </si>
-  <si>
-    <t>ADC Enable bit</t>
+      <t>= El ADC está desactivado y no consume corriente de funcionamiento</t>
+    </r>
+  </si>
+  <si>
+    <t>PIR1</t>
+  </si>
+  <si>
+    <t>ADIF</t>
+  </si>
+  <si>
+    <t>RCIF</t>
+  </si>
+  <si>
+    <t>TXIF</t>
+  </si>
+  <si>
+    <t>SSPIF</t>
+  </si>
+  <si>
+    <t>CCP1IF</t>
+  </si>
+  <si>
+    <t>TMR2IF</t>
+  </si>
+  <si>
+    <t>TMR1IF</t>
+  </si>
+  <si>
+    <t>A/D Converter Interrupt Flag bit</t>
   </si>
   <si>
     <r>
@@ -798,11 +835,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>= ADC is enabled</t>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>= Conversión A/D completa (debe borrarse en el software)</t>
     </r>
   </si>
   <si>
@@ -811,39 +848,95 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>= El ADC está desactivado y no consume corriente de funcionamiento</t>
-    </r>
-  </si>
-  <si>
-    <t>PIR1</t>
-  </si>
-  <si>
-    <t>ADIF</t>
-  </si>
-  <si>
-    <t>RCIF</t>
-  </si>
-  <si>
-    <t>TXIF</t>
-  </si>
-  <si>
-    <t>SSPIF</t>
-  </si>
-  <si>
-    <t>CCP1IF</t>
-  </si>
-  <si>
-    <t>TMR2IF</t>
-  </si>
-  <si>
-    <t>TMR1IF</t>
-  </si>
-  <si>
-    <t>A/D Converter Interrupt Flag bit</t>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>=La conversión A/D no se ha completado o no se ha iniciado</t>
+    </r>
+  </si>
+  <si>
+    <t>TRISA</t>
+  </si>
+  <si>
+    <t>TRISA7</t>
+  </si>
+  <si>
+    <t>TRISA6</t>
+  </si>
+  <si>
+    <t>TRISA5</t>
+  </si>
+  <si>
+    <t>TRISA4</t>
+  </si>
+  <si>
+    <t>TRISA3</t>
+  </si>
+  <si>
+    <t>TRISA2</t>
+  </si>
+  <si>
+    <t>TRISA1</t>
+  </si>
+  <si>
+    <t>TRISA0</t>
+  </si>
+  <si>
+    <t>0= Salida</t>
+  </si>
+  <si>
+    <t>1 = Entrada</t>
+  </si>
+  <si>
+    <t>MOVF</t>
+  </si>
+  <si>
+    <t>El contenido del registro "f" es
+trasladado a un destino dependiente
+sobre el estado de "d". Si d = 0,
+el destino es el registro W. Si d = 1,
+el destino es el registro de archivo "f"
+sí mismo. d = 1 es útil para probar un archivo
+registrarse ya que el indicador de estado Z es
+afectado</t>
+  </si>
+  <si>
+    <t>MOVF f,d</t>
+  </si>
+  <si>
+    <t>0 ≤ f ≤ 127
+d € [0,1]</t>
+  </si>
+  <si>
+    <t>(f) →  (dest)</t>
+  </si>
+  <si>
+    <t>ADRESH</t>
+  </si>
+  <si>
+    <t>ADRES9</t>
+  </si>
+  <si>
+    <t>ADRES8</t>
+  </si>
+  <si>
+    <t>ADRES7</t>
+  </si>
+  <si>
+    <t>ADRES6</t>
+  </si>
+  <si>
+    <t>ADRES5</t>
+  </si>
+  <si>
+    <t>ADRES4</t>
+  </si>
+  <si>
+    <t>ADRES3</t>
+  </si>
+  <si>
+    <t>ADRES2</t>
   </si>
   <si>
     <r>
@@ -851,65 +944,33 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>= Conversión A/D completa (debe borrarse en el software)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>=La conversión A/D no se ha completado o no se ha iniciado</t>
-    </r>
-  </si>
-  <si>
-    <t>TRISA</t>
-  </si>
-  <si>
-    <t>TRISA7</t>
-  </si>
-  <si>
-    <t>TRISA6</t>
-  </si>
-  <si>
-    <t>TRISA5</t>
-  </si>
-  <si>
-    <t>TRISA4</t>
-  </si>
-  <si>
-    <t>TRISA3</t>
-  </si>
-  <si>
-    <t>TRISA2</t>
-  </si>
-  <si>
-    <t>TRISA1</t>
-  </si>
-  <si>
-    <t>TRISA0</t>
-  </si>
-  <si>
-    <t>0= Salida</t>
-  </si>
-  <si>
-    <t>1 = Entrada</t>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>=  Inicia la conversion A/D.
+  El hardware borra automáticamente este bit cuando se completa la conversión A/D.</t>
+    </r>
+  </si>
+  <si>
+    <t>RRF</t>
+  </si>
+  <si>
+    <t>RRF f,d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el bit de acarreo desplaza el  contenido 
+de registro "f" un bit a la derecha.
+Si d=0 el resultado se almacena en W.
+Si d=1 el resultado se almacena en "f"
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +1009,18 @@
       <color rgb="FF000000"/>
       <name val="Courier"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -957,7 +1030,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -989,11 +1062,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,17 +1135,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A25AD9-3DB7-4534-841D-88612F2DA8DB}">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,42 +1507,42 @@
     <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1"/>
     <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1471,113 +1628,134 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1679,271 +1857,277 @@
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I37" s="7" t="s">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I56" s="1" t="s">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="11" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="12" t="s">
-        <v>113</v>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="B1:I1"/>
@@ -1955,6 +2139,26 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1963,16 +2167,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54A76DD-EDA1-4E99-B1F3-85F8FA19E0D1}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="29.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="4" bestFit="1" customWidth="1"/>
@@ -2061,10 +2265,51 @@
         <v>38</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="252" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="162" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="14"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="A1:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PIC16F886/PIC16F886.xlsx
+++ b/PIC16F886/PIC16F886.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PIC\PIC\PIC16F886\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F685320F-A41B-438C-813B-A665D80CB1DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1B725-2190-47E7-BAD1-3EE3306D506C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="1125" windowWidth="33780" windowHeight="15435" activeTab="1" xr2:uid="{21F57865-19CC-4E7F-83FF-F697AEECD4CC}"/>
+    <workbookView xWindow="-34545" yWindow="2880" windowWidth="33780" windowHeight="15435" activeTab="1" xr2:uid="{21F57865-19CC-4E7F-83FF-F697AEECD4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTROS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
   <si>
     <t>PUERTO A</t>
   </si>
@@ -964,6 +964,86 @@
 Si d=0 el resultado se almacena en W.
 Si d=1 el resultado se almacena en "f"
 </t>
+  </si>
+  <si>
+    <t>ANSEL</t>
+  </si>
+  <si>
+    <t>ANS0</t>
+  </si>
+  <si>
+    <t>ANS1</t>
+  </si>
+  <si>
+    <t>ANS2</t>
+  </si>
+  <si>
+    <t>ANS3</t>
+  </si>
+  <si>
+    <t>ANS4</t>
+  </si>
+  <si>
+    <t>ANS5</t>
+  </si>
+  <si>
+    <t>ANS6</t>
+  </si>
+  <si>
+    <t>ANS7</t>
+  </si>
+  <si>
+    <t>ANS8</t>
+  </si>
+  <si>
+    <t>ANS9</t>
+  </si>
+  <si>
+    <t>ANS10</t>
+  </si>
+  <si>
+    <t>ANS11</t>
+  </si>
+  <si>
+    <t>ANS12</t>
+  </si>
+  <si>
+    <t>ANS13</t>
+  </si>
+  <si>
+    <t>0 = Digital I/O. Pin is assigned to port or special function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>1 = Analog input. Pin is assigned as analog input(1).</t>
+  </si>
+  <si>
+    <t>ADRESL</t>
+  </si>
+  <si>
+    <t>ADRES1</t>
+  </si>
+  <si>
+    <t>ADRES0</t>
+  </si>
+  <si>
+    <t>IORWF</t>
+  </si>
+  <si>
+    <t>IORWF f,d</t>
+  </si>
+  <si>
+    <t>Inclusive OR the W register with
+register ‘f’. If ‘d’ is ‘0’, the result is
+placed in the W register. If ‘d’ is
+‘1’, the result is placed back in
+register ‘f’.</t>
+  </si>
+  <si>
+    <t>(W) .OR. (f)  (destination)</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1140,13 +1220,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1154,19 +1228,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1177,6 +1242,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A25AD9-3DB7-4534-841D-88612F2DA8DB}">
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,36 +1599,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1656,106 +1742,106 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1883,16 +1969,16 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="7" t="s">
         <v>97</v>
       </c>
@@ -1901,17 +1987,17 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="23" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="18" t="s">
         <v>137</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -1919,16 +2005,16 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="3" t="s">
         <v>96</v>
       </c>
@@ -1937,124 +2023,124 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -2126,8 +2212,180 @@
         <v>136</v>
       </c>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D75" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="36">
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="B1:I1"/>
@@ -2139,26 +2397,11 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2167,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54A76DD-EDA1-4E99-B1F3-85F8FA19E0D1}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2521,7 @@
       <c r="D5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>127</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2295,7 +2538,7 @@
       <c r="C6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>126</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2303,7 +2546,24 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="14"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">

--- a/PIC16F886/PIC16F886.xlsx
+++ b/PIC16F886/PIC16F886.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PIC\PIC\PIC16F886\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1B725-2190-47E7-BAD1-3EE3306D506C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AA7DAB-D5A8-43AE-ADB0-039A0DE0A0F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34545" yWindow="2880" windowWidth="33780" windowHeight="15435" activeTab="1" xr2:uid="{21F57865-19CC-4E7F-83FF-F697AEECD4CC}"/>
+    <workbookView xWindow="6150" yWindow="2910" windowWidth="29895" windowHeight="15435" activeTab="2" xr2:uid="{21F57865-19CC-4E7F-83FF-F697AEECD4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTROS" sheetId="1" r:id="rId1"/>
     <sheet name="INSTRUCCIONES" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="250">
   <si>
     <t>PUERTO A</t>
   </si>
@@ -1045,12 +1046,1271 @@
   <si>
     <t>(W) .OR. (f)  (destination)</t>
   </si>
+  <si>
+    <t>ADDLW</t>
+  </si>
+  <si>
+    <t>ADDWF</t>
+  </si>
+  <si>
+    <t>ANDLW</t>
+  </si>
+  <si>
+    <t>ANDW</t>
+  </si>
+  <si>
+    <t>ADDLW k</t>
+  </si>
+  <si>
+    <t>ADDWF f,d</t>
+  </si>
+  <si>
+    <t>ANDWF f,d</t>
+  </si>
+  <si>
+    <t>COMF</t>
+  </si>
+  <si>
+    <t>COMF f,d</t>
+  </si>
+  <si>
+    <t>DECF</t>
+  </si>
+  <si>
+    <t>DECF f,d</t>
+  </si>
+  <si>
+    <t>DECFSZ</t>
+  </si>
+  <si>
+    <t>DECFSZ f,d</t>
+  </si>
+  <si>
+    <t>GOTO</t>
+  </si>
+  <si>
+    <t>GOTO k</t>
+  </si>
+  <si>
+    <t>INCF</t>
+  </si>
+  <si>
+    <t>INCF f,d</t>
+  </si>
+  <si>
+    <t>INCFSZ</t>
+  </si>
+  <si>
+    <t>INCFSZ f,d</t>
+  </si>
+  <si>
+    <t>IORLW</t>
+  </si>
+  <si>
+    <t>IORLW k</t>
+  </si>
+  <si>
+    <t>MOVLW</t>
+  </si>
+  <si>
+    <t>MOVLW k</t>
+  </si>
+  <si>
+    <t>MOVWF</t>
+  </si>
+  <si>
+    <t>MOVWF f</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>RETFIE</t>
+  </si>
+  <si>
+    <t>RETLW</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>RETLW k</t>
+  </si>
+  <si>
+    <t>RLF</t>
+  </si>
+  <si>
+    <t>RLF f,d</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>SUBLW</t>
+  </si>
+  <si>
+    <t>SUBLW k</t>
+  </si>
+  <si>
+    <t>SUBW</t>
+  </si>
+  <si>
+    <t>SUBWF f,d</t>
+  </si>
+  <si>
+    <t>SWAPF</t>
+  </si>
+  <si>
+    <t>SWAPF f,d</t>
+  </si>
+  <si>
+    <t>XORLW</t>
+  </si>
+  <si>
+    <t>XORLW k</t>
+  </si>
+  <si>
+    <t>XORWF</t>
+  </si>
+  <si>
+    <t>XORWF f,d</t>
+  </si>
+  <si>
+    <t>BTFSC</t>
+  </si>
+  <si>
+    <t>BTFSS</t>
+  </si>
+  <si>
+    <t>BTFSS f,b</t>
+  </si>
+  <si>
+    <t>BTFSC f,b</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>CALL k</t>
+  </si>
+  <si>
+    <t>CLRW</t>
+  </si>
+  <si>
+    <t>CLRWDT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(f&lt;3:0&gt;) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(destination&lt;7:4&gt;), (f&lt;7:4&gt;) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(destination&lt;3:0&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(W) .XOR. k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>W)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(W) .XOR. (f) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>destination)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(W) + k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(W) + (f) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(destination)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(W) .AND. (k) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(W)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ANDLW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="CourierNew"/>
+      </rPr>
+      <t>k</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(W) .AND. (f) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(destination)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(f&lt;b&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(f&lt;b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">skip if (f&lt;b&gt;) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="CourierNew"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">skip if (f&lt;b&gt;) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="CourierNew"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(PC)+ 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TOS, k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PC&lt;10:0&gt;, (PCLATH&lt;4:3&gt;) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC&lt;12:11&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">00h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(f), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">00h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(W), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">00h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WDT, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WDT prescaler, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TO, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(f) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(destination)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(f) - 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(destination)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(f) - 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(destination);skip if result = 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PC&lt;10:0&gt;; PCLATH&lt;4:3&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC&lt;12:11&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(f) + 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(destination)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(f) + 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(destination), skip if result = 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(W) .OR. k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(W)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(W) .OR. (f) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(destination)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(f) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(dest)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(W)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(W) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(f)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PC, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GIE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(W); TOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">00h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WDT, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WDT prescaler, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TO, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">® </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k - (W) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>W)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(f) - (W) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>destination)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +2361,64 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="CourierNew"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1110,7 +2428,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1194,11 +2512,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1243,10 +2598,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1255,14 +2619,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,11 +2959,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A25AD9-3DB7-4534-841D-88612F2DA8DB}">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="37" style="1" bestFit="1" customWidth="1"/>
@@ -1598,7 +2977,7 @@
     <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +3009,7 @@
       <c r="X1" s="21"/>
       <c r="Y1" s="21"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +3091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
@@ -1741,7 +3120,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="B6" s="21" t="s">
         <v>121</v>
       </c>
@@ -1753,7 +3132,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="21" t="s">
         <v>122</v>
       </c>
@@ -1765,8 +3144,8 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1795,55 +3174,55 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="1:25">
+      <c r="B10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:25">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:25">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:25" ht="15.75" thickBot="1">
+      <c r="B13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1851,17 +3230,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1869,22 +3248,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1892,7 +3271,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -1906,7 +3285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1917,7 +3296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" s="3" t="s">
         <v>57</v>
       </c>
@@ -1928,7 +3307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="B33" s="3" t="s">
         <v>58</v>
       </c>
@@ -1939,7 +3318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -1968,11 +3347,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
+    <row r="37" spans="1:9">
+      <c r="B37" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="21" t="s">
         <v>79</v>
       </c>
@@ -1986,17 +3365,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
+    <row r="38" spans="1:9" ht="37.5">
+      <c r="B38" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="18" t="s">
         <v>137</v>
       </c>
@@ -2004,17 +3383,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
+    <row r="39" spans="1:9">
+      <c r="B39" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="3" t="s">
         <v>96</v>
       </c>
@@ -2022,127 +3401,127 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+    <row r="40" spans="1:9">
+      <c r="B40" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="20" t="s">
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="D42" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="20" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="D43" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="20" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="D44" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="20" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="D45" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="20" t="s">
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="D46" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="20" t="s">
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="D47" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="20" t="s">
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="D48" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="20" t="s">
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="D49" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="20" t="s">
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="D50" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="20" t="s">
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="D51" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="20" t="s">
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="D52" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="20" t="s">
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="D53" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
         <v>101</v>
       </c>
@@ -2168,22 +3547,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="C57" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="C58" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="C59" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="6" t="s">
         <v>128</v>
       </c>
@@ -2212,7 +3591,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2223,7 +3602,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="11" t="s">
         <v>159</v>
       </c>
@@ -2240,7 +3619,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2251,7 +3630,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
         <v>141</v>
       </c>
@@ -2280,7 +3659,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="11"/>
       <c r="B68" s="21" t="s">
         <v>156</v>
@@ -2293,7 +3672,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="11"/>
       <c r="B69" s="21" t="s">
         <v>158</v>
@@ -2306,8 +3685,8 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="26" t="s">
+    <row r="70" spans="1:9">
+      <c r="B70" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C70" s="21"/>
@@ -2318,7 +3697,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
         <v>25</v>
       </c>
@@ -2341,7 +3720,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -2354,7 +3733,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="D75" s="21" t="s">
         <v>156</v>
       </c>
@@ -2366,26 +3745,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="B1:I1"/>
@@ -2402,6 +3761,26 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2412,11 +3791,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54A76DD-EDA1-4E99-B1F3-85F8FA19E0D1}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="4" bestFit="1" customWidth="1"/>
@@ -2428,7 +3807,7 @@
     <col min="8" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2451,7 +3830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="36">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -2468,7 +3847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="36">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -2485,7 +3864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="36">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -2508,7 +3887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="252" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="252">
       <c r="A5" s="4" t="s">
         <v>123</v>
       </c>
@@ -2528,7 +3907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="162" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="162">
       <c r="A6" s="4" t="s">
         <v>138</v>
       </c>
@@ -2545,10 +3924,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="144">
       <c r="A8" s="4" t="s">
         <v>162</v>
       </c>
@@ -2572,4 +3951,400 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AFCB9-94D9-4427-A23F-240DC58B34D0}">
+  <dimension ref="A2:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="A12" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
+      <c r="A13" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
+      <c r="A17" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
+      <c r="A18" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1">
+      <c r="A19" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1">
+      <c r="A20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1">
+      <c r="A22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1">
+      <c r="A24" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1">
+      <c r="A25" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="A26" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
+      <c r="A27" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1">
+      <c r="A28" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1">
+      <c r="A29" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1">
+      <c r="A30" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1">
+      <c r="A31" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1">
+      <c r="A32" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1">
+      <c r="A33" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1">
+      <c r="A34" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>